--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Kogler</t>
   </si>
@@ -41,18 +41,9 @@
     <t>Create Tables &amp; Trigger</t>
   </si>
   <si>
-    <t>GUI für Login, Register &amp; Forgot Password</t>
-  </si>
-  <si>
-    <t>Entity Classes &amp; Program Logic for Login &amp; Register</t>
-  </si>
-  <si>
     <t>Datamodell</t>
   </si>
   <si>
-    <t>OleDB Aufrufe (Login, Register, Forgot Pw) &amp; Send E-Mail</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -60,6 +51,33 @@
   </si>
   <si>
     <t>Sprint 1 (22.09 - 29.09)</t>
+  </si>
+  <si>
+    <t>Sprint 2 (29.09 - 09.10)</t>
+  </si>
+  <si>
+    <t>GUI für Login, Register &amp; Forgot Password (WPF)</t>
+  </si>
+  <si>
+    <t>Entity Classes &amp; Program Logic for Login &amp; Register (WPF)</t>
+  </si>
+  <si>
+    <t>OleDB Aufrufe (Login, Register, Forgot Pw) &amp; Send E-Mail (WPF)</t>
+  </si>
+  <si>
+    <t>GUI für Login, Register, Forgot Password, Main &amp; Add Project (Android)</t>
+  </si>
+  <si>
+    <t>New Create Tables &amp; Trigger</t>
+  </si>
+  <si>
+    <t>Datenmodell ausgebessert</t>
+  </si>
+  <si>
+    <t>Filipovic, Kerschbaumer &amp; Kogler</t>
+  </si>
+  <si>
+    <t>New Entity Classes (WPF)</t>
   </si>
 </sst>
 </file>
@@ -106,11 +124,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -391,37 +409,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -437,7 +455,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -445,23 +463,70 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\Documents\Schule\5\BSD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Kogler</t>
   </si>
@@ -56,28 +56,115 @@
     <t>Sprint 2 (29.09 - 09.10)</t>
   </si>
   <si>
-    <t>GUI für Login, Register &amp; Forgot Password (WPF)</t>
-  </si>
-  <si>
-    <t>Entity Classes &amp; Program Logic for Login &amp; Register (WPF)</t>
-  </si>
-  <si>
-    <t>OleDB Aufrufe (Login, Register, Forgot Pw) &amp; Send E-Mail (WPF)</t>
-  </si>
-  <si>
-    <t>GUI für Login, Register, Forgot Password, Main &amp; Add Project (Android)</t>
-  </si>
-  <si>
-    <t>New Create Tables &amp; Trigger</t>
-  </si>
-  <si>
     <t>Datenmodell ausgebessert</t>
   </si>
   <si>
     <t>Filipovic, Kerschbaumer &amp; Kogler</t>
   </si>
   <si>
-    <t>New Entity Classes (WPF)</t>
+    <t>Sprint 3 (9.10 - 16.10)</t>
+  </si>
+  <si>
+    <t>JDBC Database connection (Insert User, Select Users)</t>
+  </si>
+  <si>
+    <t>Schiene</t>
+  </si>
+  <si>
+    <t>WPF-C#</t>
+  </si>
+  <si>
+    <t>Oracle Datenbank</t>
+  </si>
+  <si>
+    <t>GUI für Login, Register &amp; Forgot Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity Classes &amp; Program Logic for Login &amp; Register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OleDB Aufrufe (Login, Register, Forgot Pw) &amp; Send E-Mail </t>
+  </si>
+  <si>
+    <t>Android-Java</t>
+  </si>
+  <si>
+    <t>GUI für Login, Register, Forgot Password, Main &amp; Add Project</t>
+  </si>
+  <si>
+    <t>Oracle-Datenbank</t>
+  </si>
+  <si>
+    <t>Er-Diagramm</t>
+  </si>
+  <si>
+    <t>GUI changes in Main(Navigation, List), Add Project</t>
+  </si>
+  <si>
+    <t>Neue Create Tables &amp; Trigger</t>
+  </si>
+  <si>
+    <t>Neue Datenmodell (Gruppen wurden gelöscht und Fehler behoben)</t>
+  </si>
+  <si>
+    <t>Filipovic, Kerschbaumer</t>
+  </si>
+  <si>
+    <t>Neue Entity Classes (Rollen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neue Entity Classes </t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Forgot Pw</t>
+  </si>
+  <si>
+    <t>Main (Show Project)</t>
+  </si>
+  <si>
+    <t>OleDB Calls</t>
+  </si>
+  <si>
+    <t>Show Profile</t>
+  </si>
+  <si>
+    <t>Show Sprints</t>
+  </si>
+  <si>
+    <t>Show Issues</t>
+  </si>
+  <si>
+    <t>Add Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Sprints </t>
+  </si>
+  <si>
+    <t>Add Issues</t>
+  </si>
+  <si>
+    <t>Add Roles</t>
+  </si>
+  <si>
+    <t>Gesammt</t>
+  </si>
+  <si>
+    <t>Entity Classes</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>Spatial</t>
+  </si>
+  <si>
+    <t>JDBC Calls</t>
   </si>
 </sst>
 </file>
@@ -121,12 +208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,124 +499,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4">
+        <f>AVERAGE(G2:G16)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="4">
+        <f>AVERAGE(I2:I16)</f>
+        <v>0.32666666666666672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexk\Documents\Schule\5\BSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>Kogler</t>
   </si>
@@ -165,6 +165,27 @@
   </si>
   <si>
     <t>JDBC Calls</t>
+  </si>
+  <si>
+    <t>Sprint 4 (16.10 - 23.10)</t>
+  </si>
+  <si>
+    <t>JDBC Update User</t>
+  </si>
+  <si>
+    <t>Neue Datenmodell (Fehler behoben)</t>
+  </si>
+  <si>
+    <t>Reworked ShowUserActivity - GUI</t>
+  </si>
+  <si>
+    <t>AddProjectActivity</t>
+  </si>
+  <si>
+    <t>Show/UpdateUserActivity</t>
+  </si>
+  <si>
+    <t>Login, Logout und Entity Classes for new Database</t>
   </si>
 </sst>
 </file>
@@ -212,10 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" activeCellId="1" sqref="C29 J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,19 +540,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -546,13 +567,13 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
@@ -569,13 +590,13 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
     </row>
@@ -592,13 +613,13 @@
       <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -615,13 +636,13 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.5</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.5</v>
       </c>
     </row>
@@ -638,14 +659,14 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="4">
-        <v>0.2</v>
+      <c r="I6" s="3">
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -661,46 +682,46 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
+      <c r="I7" s="3">
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -717,14 +738,14 @@
       <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4">
-        <v>0.9</v>
+      <c r="I10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -740,13 +761,13 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -763,13 +784,13 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -786,13 +807,13 @@
       <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -809,13 +830,13 @@
       <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.8</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.3</v>
       </c>
     </row>
@@ -823,32 +844,32 @@
       <c r="F15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -865,16 +886,16 @@
       <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f>AVERAGE(G2:G16)</f>
         <v>0.3</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f>AVERAGE(I2:I16)</f>
-        <v>0.32666666666666672</v>
+        <v>0.39333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -943,13 +964,109 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
   <si>
     <t>Kogler</t>
   </si>
@@ -201,6 +201,24 @@
   </si>
   <si>
     <t>technical difficulties</t>
+  </si>
+  <si>
+    <t>Finished Add/Show Sprints</t>
+  </si>
+  <si>
+    <t>Show Issues Activity</t>
+  </si>
+  <si>
+    <t>Bugfixes and Features</t>
+  </si>
+  <si>
+    <t>Add Roles Activity</t>
+  </si>
+  <si>
+    <t>Show Projects/Load Projects</t>
+  </si>
+  <si>
+    <t>Sprint 6 (30.10 - 10.11)</t>
   </si>
 </sst>
 </file>
@@ -535,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,13 +670,13 @@
         <v>33</v>
       </c>
       <c r="G5" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -681,7 +699,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -718,7 +736,7 @@
         <v>36</v>
       </c>
       <c r="I8" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -737,7 +755,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -829,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -852,7 +870,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="3">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -903,14 +921,14 @@
       </c>
       <c r="G17" s="3">
         <f>AVERAGE(G2:G16)</f>
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="3">
         <f>AVERAGE(I2:I16)</f>
-        <v>0.51666666666666661</v>
+        <v>0.64333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1136,8 +1154,82 @@
         <v>2</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A42:C42"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A25:C25"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>Kogler</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Sprint 6 (30.10 - 10.11)</t>
+  </si>
+  <si>
+    <t>Save Profilepicture in DB</t>
+  </si>
+  <si>
+    <t>Changes on Main-Activity</t>
+  </si>
+  <si>
+    <t>Add Projects/Sprints (not finished)</t>
+  </si>
+  <si>
+    <t>Sprint 7 (11.11 - 19.11)</t>
   </si>
 </sst>
 </file>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +665,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -699,7 +711,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -772,7 +784,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -795,13 +807,13 @@
         <v>39</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -921,14 +933,14 @@
       </c>
       <c r="G17" s="3">
         <f>AVERAGE(G2:G16)</f>
-        <v>0.32</v>
+        <v>0.34666666666666662</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="3">
         <f>AVERAGE(I2:I16)</f>
-        <v>0.64333333333333331</v>
+        <v>0.64666666666666661</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1227,8 +1239,71 @@
         <v>2</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="H1:I1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
   <si>
     <t>Kogler</t>
   </si>
@@ -231,6 +231,33 @@
   </si>
   <si>
     <t>Sprint 7 (11.11 - 19.11)</t>
+  </si>
+  <si>
+    <t>Sprint 8 (20.11 - 26.11)</t>
+  </si>
+  <si>
+    <t>Edit Project</t>
+  </si>
+  <si>
+    <t>Lot of Bugfixes</t>
+  </si>
+  <si>
+    <t>Show Users of Project</t>
+  </si>
+  <si>
+    <t>GUI-Changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Project </t>
+  </si>
+  <si>
+    <t>Show/Edit Profile</t>
+  </si>
+  <si>
+    <t>Data reworked</t>
+  </si>
+  <si>
+    <t>Sprint 9 (27.11 - 3.12)</t>
   </si>
 </sst>
 </file>
@@ -565,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,13 +732,13 @@
         <v>34</v>
       </c>
       <c r="G6" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -728,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -784,7 +811,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="3">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
@@ -813,7 +840,7 @@
         <v>39</v>
       </c>
       <c r="I11" s="3">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -859,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="I13" s="3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -876,13 +903,13 @@
         <v>43</v>
       </c>
       <c r="G14" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -933,14 +960,14 @@
       </c>
       <c r="G17" s="3">
         <f>AVERAGE(G2:G16)</f>
-        <v>0.34666666666666662</v>
+        <v>0.46</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I17" s="3">
         <f>AVERAGE(I2:I16)</f>
-        <v>0.64666666666666661</v>
+        <v>0.70200000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1301,8 +1328,123 @@
         <v>2</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A35:C35"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
   <si>
     <t>Kogler</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Sprint 9 (27.11 - 3.12)</t>
+  </si>
+  <si>
+    <t>Reworked Create Role Activity</t>
   </si>
 </sst>
 </file>
@@ -592,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,19 +1444,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="89">
   <si>
     <t>Kogler</t>
   </si>
@@ -261,6 +261,36 @@
   </si>
   <si>
     <t>Reworked Create Role Activity</t>
+  </si>
+  <si>
+    <t>Sprint 10 (4.12 - 10.12)</t>
+  </si>
+  <si>
+    <t>Add Roles to User (not finished)</t>
+  </si>
+  <si>
+    <t>Webservice-Java</t>
+  </si>
+  <si>
+    <t>Created Entity Classes</t>
+  </si>
+  <si>
+    <t>Entity-Classes</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Resource-Controllers</t>
+  </si>
+  <si>
+    <t>JPA testing</t>
+  </si>
+  <si>
+    <t>Webservice designed</t>
+  </si>
+  <si>
+    <t>Kogler, Kerschbaumer, FIlipovic</t>
   </si>
 </sst>
 </file>
@@ -304,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -315,6 +345,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -595,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,9 +643,11 @@
     <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -628,8 +661,12 @@
         <v>20</v>
       </c>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -651,8 +688,14 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -674,8 +717,14 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -697,8 +746,14 @@
       <c r="I4" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -720,8 +775,15 @@
       <c r="I5" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3">
+        <f>AVERAGE(K2:K4)</f>
+        <v>0.27333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -744,7 +806,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -767,7 +829,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -781,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -800,7 +862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -846,7 +908,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -869,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -892,7 +954,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -915,7 +977,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>44</v>
       </c>
@@ -929,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1455,19 +1517,83 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
   <si>
     <t>Kogler</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>Kogler, Kerschbaumer, FIlipovic</t>
+  </si>
+  <si>
+    <t>Sprint 11 (11.12 - 17.12)</t>
+  </si>
+  <si>
+    <t>Sync with Kerschbaumer</t>
+  </si>
+  <si>
+    <t>Add Issues (not finished)</t>
+  </si>
+  <si>
+    <t>Some Resource Controllers</t>
+  </si>
+  <si>
+    <t>GUI changes and bugfixes</t>
   </si>
 </sst>
 </file>
@@ -339,13 +354,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -626,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,23 +663,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -750,7 +765,7 @@
         <v>85</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -780,7 +795,7 @@
       </c>
       <c r="K5" s="3">
         <f>AVERAGE(K2:K4)</f>
-        <v>0.27333333333333337</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -844,11 +859,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="F9" t="s">
         <v>37</v>
       </c>
@@ -928,7 +943,7 @@
         <v>40</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -992,11 +1007,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="F16" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1047,7 @@
       </c>
       <c r="I17" s="3">
         <f>AVERAGE(I2:I16)</f>
-        <v>0.70200000000000007</v>
+        <v>0.7486666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1102,11 +1117,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1197,11 +1212,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1259,11 +1274,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1332,11 +1347,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
@@ -1394,11 +1409,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -1445,11 +1460,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -1518,11 +1533,11 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -1536,13 +1551,13 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1579,8 +1594,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A78:C78"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A57:C57"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>Kogler</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t>GUI changes and bugfixes</t>
+  </si>
+  <si>
+    <t>Sprint 12 (18.12 - 24.12)</t>
+  </si>
+  <si>
+    <t>overflowed of gui fixed</t>
+  </si>
+  <si>
+    <t>add role windows</t>
+  </si>
+  <si>
+    <t>Maven and JPA trying</t>
+  </si>
+  <si>
+    <t>Sprint 13 (25.12 - 31.12)</t>
   </si>
 </sst>
 </file>
@@ -641,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1656,8 +1671,99 @@
         <v>1</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A91:C91"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="J1:K1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
   <si>
     <t>Kogler</t>
   </si>
@@ -320,7 +320,16 @@
     <t>Maven and JPA trying</t>
   </si>
   <si>
-    <t>Sprint 13 (25.12 - 31.12)</t>
+    <t>Sprint 13 (25.12 - 08.01)</t>
+  </si>
+  <si>
+    <t>JPA Webservice with isValid, create User &amp; Project</t>
+  </si>
+  <si>
+    <t>All Methods for User, Project &amp; Role finished</t>
+  </si>
+  <si>
+    <t>Started to change the jdbc calls to webservice calls</t>
   </si>
 </sst>
 </file>
@@ -659,7 +668,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,19 +1755,37 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
   <si>
     <t>Kogler</t>
   </si>
@@ -158,12 +158,6 @@
     <t>Entity Classes</t>
   </si>
   <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>Spatial</t>
-  </si>
-  <si>
     <t>JDBC Calls</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>Maven and JPA trying</t>
   </si>
   <si>
-    <t>Sprint 13 (25.12 - 08.01)</t>
-  </si>
-  <si>
     <t>JPA Webservice with isValid, create User &amp; Project</t>
   </si>
   <si>
@@ -330,6 +321,24 @@
   </si>
   <si>
     <t>Started to change the jdbc calls to webservice calls</t>
+  </si>
+  <si>
+    <t>Sprint 13 (25.12 - 07.01)</t>
+  </si>
+  <si>
+    <t>Sprint 14 (08.01 - 14.01)</t>
+  </si>
+  <si>
+    <t>JPA Webservice changes in URLs and messages</t>
+  </si>
+  <si>
+    <t>Kogler &amp; Filipovic</t>
+  </si>
+  <si>
+    <t>add role windows with logic</t>
+  </si>
+  <si>
+    <t>isValid call from android with OkHttp library</t>
   </si>
 </sst>
 </file>
@@ -665,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +692,7 @@
     <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -701,7 +710,7 @@
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -728,10 +737,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K2" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -757,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K3" s="3">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -786,10 +795,10 @@
         <v>0.8</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" s="3">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -819,7 +828,7 @@
       </c>
       <c r="K5" s="3">
         <f>AVERAGE(K2:K4)</f>
-        <v>0.29000000000000004</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -839,7 +848,7 @@
         <v>0.3</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3">
         <v>0.8</v>
@@ -938,7 +947,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="3">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -984,7 +993,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -1017,17 +1026,19 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
-        <v>44</v>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
+        <f ca="1">AVERAGE(G2:G16)</f>
+        <v>0.58461538461538465</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <f ca="1">AVERAGE(I2:I16)</f>
+        <v>0.86384615384615393</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1036,20 +1047,10 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1059,22 +1060,8 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="3">
-        <f>AVERAGE(G2:G16)</f>
-        <v>0.46</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="3">
-        <f>AVERAGE(I2:I16)</f>
-        <v>0.7486666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +1094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1140,14 +1127,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1158,9 +1145,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1169,9 +1156,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1180,9 +1167,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1191,7 +1178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1202,9 +1189,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1213,9 +1200,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -1226,7 +1213,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -1237,7 +1224,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1255,7 +1242,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -1266,7 +1253,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1277,7 +1264,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -1288,7 +1275,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1299,7 +1286,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1317,7 +1304,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1328,7 +1315,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1339,7 +1326,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1350,7 +1337,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -1361,7 +1348,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1372,7 +1359,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1390,7 +1377,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -1412,7 +1399,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -1423,7 +1410,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -1434,7 +1421,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1452,7 +1439,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -1463,7 +1450,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -1474,7 +1461,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -1485,7 +1472,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1503,7 +1490,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -1514,7 +1501,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -1525,7 +1512,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -1536,7 +1523,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -1547,7 +1534,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -1558,7 +1545,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1576,18 +1563,18 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -1598,10 +1585,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -1609,10 +1596,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1620,7 +1607,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1638,7 +1625,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>15</v>
@@ -1649,7 +1636,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>20</v>
@@ -1660,7 +1647,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>15</v>
@@ -1671,10 +1658,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>1</v>
@@ -1682,7 +1669,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1700,7 +1687,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>15</v>
@@ -1711,7 +1698,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>15</v>
@@ -1722,10 +1709,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>1</v>
@@ -1738,7 +1725,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1756,10 +1743,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>0</v>
@@ -1767,10 +1754,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>1</v>
@@ -1778,17 +1765,69 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B99" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A78:C78"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
   <si>
     <t>Kogler</t>
   </si>
@@ -152,15 +152,9 @@
     <t>Add Roles</t>
   </si>
   <si>
-    <t>Gesammt</t>
-  </si>
-  <si>
     <t>Entity Classes</t>
   </si>
   <si>
-    <t>JDBC Calls</t>
-  </si>
-  <si>
     <t>Sprint 4 (16.10 - 23.10)</t>
   </si>
   <si>
@@ -339,6 +333,21 @@
   </si>
   <si>
     <t>isValid call from android with OkHttp library</t>
+  </si>
+  <si>
+    <t>Sprint 15 (15.01 - 21.01)</t>
+  </si>
+  <si>
+    <t>CreateUser Call from android</t>
+  </si>
+  <si>
+    <t>add sprints to projects</t>
+  </si>
+  <si>
+    <t>webservice functions changed to what we need</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -674,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +719,7 @@
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -737,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -766,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K3" s="3">
         <v>0.7</v>
@@ -795,7 +804,7 @@
         <v>0.8</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4" s="3">
         <v>0.8</v>
@@ -824,7 +833,7 @@
         <v>0.8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE(K2:K4)</f>
@@ -845,13 +854,13 @@
         <v>34</v>
       </c>
       <c r="G6" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,13 +877,13 @@
         <v>35</v>
       </c>
       <c r="G7" s="3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -882,13 +891,13 @@
         <v>36</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -904,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -927,10 +936,10 @@
         <v>0.9</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -950,10 +959,10 @@
         <v>0.9</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -973,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -996,10 +1005,10 @@
         <v>0.7</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1013,32 +1022,26 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3">
         <v>0.9</v>
       </c>
-      <c r="H14" t="s">
-        <v>43</v>
+      <c r="H14" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="3">
-        <v>0.9</v>
+        <f>AVERAGE(I2:I13)</f>
+        <v>0.86916666666666664</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="G15" s="3">
-        <f ca="1">AVERAGE(G2:G16)</f>
-        <v>0.58461538461538465</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3">
-        <f ca="1">AVERAGE(I2:I16)</f>
-        <v>0.86384615384615393</v>
+        <f>AVERAGE(G2:G14)</f>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1129,7 +1132,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1147,7 +1150,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1158,7 +1161,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -1213,7 +1216,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1326,7 +1329,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -1410,7 +1413,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1439,7 +1442,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -1512,7 +1515,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -1534,7 +1537,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1563,18 +1566,18 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -1585,10 +1588,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1607,7 +1610,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1625,7 +1628,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>15</v>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>20</v>
@@ -1647,7 +1650,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>15</v>
@@ -1658,10 +1661,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>1</v>
@@ -1669,7 +1672,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1687,7 +1690,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>15</v>
@@ -1698,7 +1701,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>15</v>
@@ -1709,10 +1712,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>1</v>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1743,10 +1746,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>0</v>
@@ -1754,10 +1757,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>1</v>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>20</v>
@@ -1776,7 +1779,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1794,18 +1797,18 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>15</v>
@@ -1816,22 +1819,69 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>0</v>
+      <c r="B105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A71:C71"/>
+  <mergeCells count="18">
+    <mergeCell ref="A103:C103"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A63:C63"/>
@@ -1844,6 +1894,11 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
   <si>
     <t>Kogler</t>
   </si>
@@ -348,6 +348,21 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Sprint 16 (22.01 - 28.01)</t>
+  </si>
+  <si>
+    <t>Webservice functions for users, projects and sprints</t>
+  </si>
+  <si>
+    <t>sync with webservice</t>
+  </si>
+  <si>
+    <t>Webseite mit login</t>
+  </si>
+  <si>
+    <t>Webseite</t>
   </si>
 </sst>
 </file>
@@ -683,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +793,7 @@
         <v>80</v>
       </c>
       <c r="K3" s="3">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -807,7 +822,7 @@
         <v>81</v>
       </c>
       <c r="K4" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -830,14 +845,14 @@
         <v>33</v>
       </c>
       <c r="I5" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE(K2:K4)</f>
-        <v>0.83333333333333337</v>
+        <v>0.95000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -910,7 +925,7 @@
         <v>37</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -979,7 +994,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="s">
         <v>41</v>
@@ -1032,7 +1047,7 @@
       </c>
       <c r="I14" s="3">
         <f>AVERAGE(I2:I13)</f>
-        <v>0.86916666666666664</v>
+        <v>0.88583333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1041,7 +1056,7 @@
       </c>
       <c r="G15" s="3">
         <f>AVERAGE(G2:G14)</f>
-        <v>0.69230769230769229</v>
+        <v>0.81538461538461537</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1879,8 +1894,73 @@
         <v>100</v>
       </c>
     </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A109:C109"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A57:C57"/>
@@ -1897,8 +1977,6 @@
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A71:C71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -350,9 +350,6 @@
     <t>Gesamt</t>
   </si>
   <si>
-    <t>Sprint 16 (22.01 - 28.01)</t>
-  </si>
-  <si>
     <t>Webservice functions for users, projects and sprints</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>Webseite</t>
+  </si>
+  <si>
+    <t>Sprint 16 (22.01 - 18.02)</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:K114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>77</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>20</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>1</v>
@@ -1958,6 +1958,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A91:C91"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A109:C109"/>
@@ -1974,9 +1977,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A91:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="115">
   <si>
     <t>Kogler</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Sprint 16 (22.01 - 18.02)</t>
+  </si>
+  <si>
+    <t>Sprint 17 (19.02 - 25.02)</t>
+  </si>
+  <si>
+    <t>Update Project</t>
   </si>
 </sst>
 </file>
@@ -698,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,13 +1962,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A71:C71"/>
+  <mergeCells count="20">
+    <mergeCell ref="A116:C116"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="J1:K1"/>
@@ -1977,6 +2008,11 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Sprints.xlsx
+++ b/Sprints.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="116">
   <si>
     <t>Kogler</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Update Project</t>
+  </si>
+  <si>
+    <t>Update Project over Webservice</t>
   </si>
 </sst>
 </file>
@@ -706,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -1993,6 +1996,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A71:C71"/>
     <mergeCell ref="A116:C116"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A103:C103"/>
@@ -2009,10 +2016,6 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A71:C71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
